--- a/proxy.xlsx
+++ b/proxy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="285">
   <si>
     <t>103.209.65.12</t>
   </si>
@@ -839,6 +839,528 @@
   </si>
   <si>
     <t>1 ч. 22 мин.</t>
+  </si>
+  <si>
+    <t>91.77.160.233</t>
+  </si>
+  <si>
+    <r>
+      <t>  Russian Federation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6D6B6B"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t>Moscow</t>
+    </r>
+  </si>
+  <si>
+    <t>140 мс</t>
+  </si>
+  <si>
+    <t>223.27.212.41</t>
+  </si>
+  <si>
+    <r>
+      <t>  Thailand </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6D6B6B"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t>Bangkok</t>
+    </r>
+  </si>
+  <si>
+    <t>2260 мс</t>
+  </si>
+  <si>
+    <t>160.16.237.47</t>
+  </si>
+  <si>
+    <t>5040 мс</t>
+  </si>
+  <si>
+    <t>51.38.71.101</t>
+  </si>
+  <si>
+    <t>  United Kingdom</t>
+  </si>
+  <si>
+    <t>1860 мс</t>
+  </si>
+  <si>
+    <t>185.124.86.10</t>
+  </si>
+  <si>
+    <r>
+      <t>  Turkey </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6D6B6B"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t>Istanbul</t>
+    </r>
+  </si>
+  <si>
+    <t>185.180.196.108</t>
+  </si>
+  <si>
+    <r>
+      <t>  Netherlands </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6D6B6B"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t>Meppel</t>
+    </r>
+  </si>
+  <si>
+    <t>HTTP, HTTPS, SOCKS5</t>
+  </si>
+  <si>
+    <t>4720 мс</t>
+  </si>
+  <si>
+    <t>7 минут</t>
+  </si>
+  <si>
+    <t>210.61.46.165</t>
+  </si>
+  <si>
+    <t>  Taiwan</t>
+  </si>
+  <si>
+    <t>1700 мс</t>
+  </si>
+  <si>
+    <t>8 минут</t>
+  </si>
+  <si>
+    <t>94.231.80.100</t>
+  </si>
+  <si>
+    <t>  Switzerland</t>
+  </si>
+  <si>
+    <t>12 минут</t>
+  </si>
+  <si>
+    <t>103.35.64.12</t>
+  </si>
+  <si>
+    <t>  Vietnam</t>
+  </si>
+  <si>
+    <t>54.39.209.42</t>
+  </si>
+  <si>
+    <t>66.70.167.116</t>
+  </si>
+  <si>
+    <t>163.172.213.174</t>
+  </si>
+  <si>
+    <r>
+      <t>  Netherlands </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6D6B6B"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t>Amsterdam</t>
+    </r>
+  </si>
+  <si>
+    <t>104.40.190.235</t>
+  </si>
+  <si>
+    <t>220 мс</t>
+  </si>
+  <si>
+    <t>89.40.120.155</t>
+  </si>
+  <si>
+    <r>
+      <t>  United Kingdom </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6D6B6B"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t>Slough</t>
+    </r>
+  </si>
+  <si>
+    <t>134.209.43.90</t>
+  </si>
+  <si>
+    <r>
+      <t>  United States </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6D6B6B"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t>Clifton</t>
+    </r>
+  </si>
+  <si>
+    <t>520 мс</t>
+  </si>
+  <si>
+    <t>13 минут</t>
+  </si>
+  <si>
+    <t>192.166.219.46</t>
+  </si>
+  <si>
+    <t>  Poland</t>
+  </si>
+  <si>
+    <t>340 мс</t>
+  </si>
+  <si>
+    <t>89.43.78.19</t>
+  </si>
+  <si>
+    <t>  Turkey</t>
+  </si>
+  <si>
+    <t>480 мс</t>
+  </si>
+  <si>
+    <t>194.179.45.69</t>
+  </si>
+  <si>
+    <r>
+      <t>  Spain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6D6B6B"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t>Cadiz</t>
+    </r>
+  </si>
+  <si>
+    <t>95.85.25.124</t>
+  </si>
+  <si>
+    <t>188.152.127.95</t>
+  </si>
+  <si>
+    <r>
+      <t>  Italy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6D6B6B"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t>Genoa</t>
+    </r>
+  </si>
+  <si>
+    <t>194.48.212.1</t>
+  </si>
+  <si>
+    <t>  Ukraine</t>
+  </si>
+  <si>
+    <t>188.152.165.14</t>
+  </si>
+  <si>
+    <r>
+      <t>  Italy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6D6B6B"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t>Rimini</t>
+    </r>
+  </si>
+  <si>
+    <t>400 мс</t>
+  </si>
+  <si>
+    <t>176.107.133.176</t>
+  </si>
+  <si>
+    <r>
+      <t>  Poland </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6D6B6B"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t>Warsaw</t>
+    </r>
+  </si>
+  <si>
+    <t>360 мс</t>
+  </si>
+  <si>
+    <t>188.216.158.27</t>
+  </si>
+  <si>
+    <r>
+      <t>  Italy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6D6B6B"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t>Bologna</t>
+    </r>
+  </si>
+  <si>
+    <t>2.38.29.170</t>
+  </si>
+  <si>
+    <r>
+      <t>  Italy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6D6B6B"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t>Florence</t>
+    </r>
+  </si>
+  <si>
+    <t>188.217.119.192</t>
+  </si>
+  <si>
+    <r>
+      <t>  Italy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6D6B6B"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t>Rome</t>
+    </r>
+  </si>
+  <si>
+    <t>188.152.139.204</t>
+  </si>
+  <si>
+    <r>
+      <t>  Italy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6D6B6B"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t>Lissone</t>
+    </r>
+  </si>
+  <si>
+    <t>188.216.98.84</t>
+  </si>
+  <si>
+    <r>
+      <t>  Italy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6D6B6B"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t>"Buttigliera Alta"</t>
+    </r>
+  </si>
+  <si>
+    <t>2.39.102.197</t>
+  </si>
+  <si>
+    <t>2.38.119.167</t>
+  </si>
+  <si>
+    <r>
+      <t>  Italy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6D6B6B"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t>Empoli</t>
+    </r>
+  </si>
+  <si>
+    <t>185.242.181.35</t>
+  </si>
+  <si>
+    <r>
+      <t>  Italy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6D6B6B"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t>Milano</t>
+    </r>
+  </si>
+  <si>
+    <t>2.39.150.215</t>
+  </si>
+  <si>
+    <t>188.152.136.71</t>
+  </si>
+  <si>
+    <r>
+      <t>  Italy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6D6B6B"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t>"San Gervasio Bresciano"</t>
+    </r>
+  </si>
+  <si>
+    <t>51.254.195.132</t>
+  </si>
+  <si>
+    <t>185.80.130.250</t>
+  </si>
+  <si>
+    <t>144.76.45.24</t>
+  </si>
+  <si>
+    <t>54.37.84.141</t>
+  </si>
+  <si>
+    <t>134.19.218.94</t>
+  </si>
+  <si>
+    <r>
+      <t>  Azerbaijan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6D6B6B"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t>Baku</t>
+    </r>
+  </si>
+  <si>
+    <t>54.37.6.196</t>
+  </si>
+  <si>
+    <t>420 мс</t>
+  </si>
+  <si>
+    <t>37.79.244.120</t>
+  </si>
+  <si>
+    <t>188.138.235.56</t>
+  </si>
+  <si>
+    <r>
+      <t>  Moldova </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6D6B6B"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t>Chisinau</t>
+    </r>
+  </si>
+  <si>
+    <t>51.75.109.94</t>
+  </si>
+  <si>
+    <t>51.75.109.87</t>
+  </si>
+  <si>
+    <t>51.75.109.84</t>
+  </si>
+  <si>
+    <t>51.75.109.86</t>
+  </si>
+  <si>
+    <t>51.75.109.88</t>
+  </si>
+  <si>
+    <t>163.172.182.164</t>
+  </si>
+  <si>
+    <t>104.248.159.30</t>
+  </si>
+  <si>
+    <t>4920 мс</t>
+  </si>
+  <si>
+    <t>195.235.234.139</t>
+  </si>
+  <si>
+    <t>  Spain</t>
+  </si>
+  <si>
+    <t>157.230.240.140</t>
+  </si>
+  <si>
+    <t>900 мс</t>
+  </si>
+  <si>
+    <t>5.79.113.168</t>
+  </si>
+  <si>
+    <t>  Netherlands</t>
+  </si>
+  <si>
+    <t>820 мс</t>
+  </si>
+  <si>
+    <t>66.70.167.115</t>
+  </si>
+  <si>
+    <t>54.39.24.40</t>
   </si>
 </sst>
 </file>
@@ -1226,10 +1748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1307,7 +1829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43.5" thickBot="1">
+    <row r="4" spans="1:7" ht="29.25" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1422,7 +1944,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="43.5" thickBot="1">
+    <row r="9" spans="1:7" ht="42" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1445,7 +1967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="43.5" thickBot="1">
+    <row r="10" spans="1:7" ht="29.25" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -1514,7 +2036,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="43.5" thickBot="1">
+    <row r="13" spans="1:7" ht="29.25" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -1537,7 +2059,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="43.5" thickBot="1">
+    <row r="14" spans="1:7" ht="42" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -1606,7 +2128,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="43.5" thickBot="1">
+    <row r="17" spans="1:7" ht="42" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
@@ -1652,7 +2174,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="43.5" thickBot="1">
+    <row r="19" spans="1:7" ht="42" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
@@ -1675,7 +2197,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="43.5" thickBot="1">
+    <row r="20" spans="1:7" ht="29.25" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
@@ -1698,7 +2220,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="43.5" thickBot="1">
+    <row r="21" spans="1:7" ht="42" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>64</v>
       </c>
@@ -1744,7 +2266,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="43.5" thickBot="1">
+    <row r="23" spans="1:7" ht="29.25" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>70</v>
       </c>
@@ -1767,7 +2289,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="43.5" thickBot="1">
+    <row r="24" spans="1:7" ht="42" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>74</v>
       </c>
@@ -1813,7 +2335,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="43.5" thickBot="1">
+    <row r="26" spans="1:7" ht="29.25" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
@@ -1859,7 +2381,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="43.5" thickBot="1">
+    <row r="28" spans="1:7" ht="29.25" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>86</v>
       </c>
@@ -2135,7 +2657,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="43.5" thickBot="1">
+    <row r="40" spans="1:7" ht="29.25" thickBot="1">
       <c r="A40" s="1" t="s">
         <v>121</v>
       </c>
@@ -2227,7 +2749,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="43.5" thickBot="1">
+    <row r="44" spans="1:7" ht="29.25" thickBot="1">
       <c r="A44" s="1" t="s">
         <v>127</v>
       </c>
@@ -2250,7 +2772,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="43.5" thickBot="1">
+    <row r="45" spans="1:7" ht="29.25" thickBot="1">
       <c r="A45" s="1" t="s">
         <v>130</v>
       </c>
@@ -2273,7 +2795,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="43.5" thickBot="1">
+    <row r="46" spans="1:7" ht="29.25" thickBot="1">
       <c r="A46" s="1" t="s">
         <v>134</v>
       </c>
@@ -2503,7 +3025,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="43.5" thickBot="1">
+    <row r="56" spans="1:7" ht="29.25" thickBot="1">
       <c r="A56" s="1" t="s">
         <v>161</v>
       </c>
@@ -2526,7 +3048,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="43.5" thickBot="1">
+    <row r="57" spans="1:7" ht="42" thickBot="1">
       <c r="A57" s="1" t="s">
         <v>162</v>
       </c>
@@ -2549,7 +3071,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="43.5" thickBot="1">
+    <row r="58" spans="1:7" ht="42" thickBot="1">
       <c r="A58" s="1" t="s">
         <v>162</v>
       </c>
@@ -2618,7 +3140,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="43.5" thickBot="1">
+    <row r="61" spans="1:7" ht="42" thickBot="1">
       <c r="A61" s="1" t="s">
         <v>170</v>
       </c>
@@ -2641,7 +3163,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="43.5" thickBot="1">
+    <row r="62" spans="1:7" ht="42" thickBot="1">
       <c r="A62" s="1" t="s">
         <v>171</v>
       </c>
@@ -2664,7 +3186,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="43.5" thickBot="1">
+    <row r="63" spans="1:7" ht="42" thickBot="1">
       <c r="A63" s="1" t="s">
         <v>175</v>
       </c>
@@ -2708,6 +3230,1478 @@
       </c>
       <c r="G64" s="5" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="70.5" thickBot="1">
+      <c r="A65" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B65" s="2">
+        <v>8080</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="42" thickBot="1">
+      <c r="A66" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" s="2">
+        <v>8080</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A67" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B67" s="2">
+        <v>8083</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="70.5" thickBot="1">
+      <c r="A68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="57.75" thickBot="1">
+      <c r="A69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="2">
+        <v>8080</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="43.5" thickBot="1">
+      <c r="A70" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B70" s="2">
+        <v>8080</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A71" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B71" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="57.75" thickBot="1">
+      <c r="A72" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B72" s="2">
+        <v>7402</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="42" thickBot="1">
+      <c r="A73" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A74" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B74" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="42" thickBot="1">
+      <c r="A75" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B75" s="2">
+        <v>8080</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A76" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B76" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="42" thickBot="1">
+      <c r="A77" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="42" thickBot="1">
+      <c r="A78" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A79" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B79" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="42" thickBot="1">
+      <c r="A80" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B80" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="42" thickBot="1">
+      <c r="A81" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B81" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="42" thickBot="1">
+      <c r="A82" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B82" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="42" thickBot="1">
+      <c r="A83" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B83" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="43.5" thickBot="1">
+      <c r="A84" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B84" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="42" thickBot="1">
+      <c r="A85" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B85" s="2">
+        <v>8080</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A86" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B86" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A87" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B87" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A88" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B88" s="2">
+        <v>8081</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="42" thickBot="1">
+      <c r="A89" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B89" s="2">
+        <v>4444</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A90" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B90" s="2">
+        <v>8118</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A91" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B91" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A92" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B92" s="2">
+        <v>8118</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A93" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B93" s="2">
+        <v>80</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A94" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B94" s="2">
+        <v>8080</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A95" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B95" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A96" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B96" s="2">
+        <v>8118</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A97" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B97" s="2">
+        <v>8118</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A98" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B98" s="2">
+        <v>8118</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A99" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B99" s="2">
+        <v>8118</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="40.5" thickBot="1">
+      <c r="A100" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B100" s="2">
+        <v>8118</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A101" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B101" s="2">
+        <v>8118</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A102" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B102" s="2">
+        <v>8118</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A103" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B103" s="2">
+        <v>8080</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A104" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B104" s="2">
+        <v>8118</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="66" thickBot="1">
+      <c r="A105" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B105" s="2">
+        <v>8118</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A106" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B106" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A107" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B107" s="2">
+        <v>80</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A108" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B108" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A109" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B109" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A110" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B110" s="2">
+        <v>3129</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="43.5" thickBot="1">
+      <c r="A111" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B111" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="54.75" thickBot="1">
+      <c r="A112" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B112" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="54.75" thickBot="1">
+      <c r="A113" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B113" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="57.75" thickBot="1">
+      <c r="A114" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B114" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="42" thickBot="1">
+      <c r="A115" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B115" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A116" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B116" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A117" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B117" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A118" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B118" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A119" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B119" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A120" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B120" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A121" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B121" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="42" thickBot="1">
+      <c r="A122" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B122" s="2">
+        <v>8080</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A123" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B123" s="2">
+        <v>80</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="42" thickBot="1">
+      <c r="A124" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B124" s="2">
+        <v>8080</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="42" thickBot="1">
+      <c r="A125" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B125" s="2">
+        <v>8080</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A126" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B126" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="42" thickBot="1">
+      <c r="A127" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B127" s="2">
+        <v>3128</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="41.25">
+      <c r="A128" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B128" s="5">
+        <v>3128</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
